--- a/gumedat.xlsx
+++ b/gumedat.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>NPCs:</t>
   </si>
@@ -40,7 +40,7 @@
     <t>inputs:</t>
   </si>
   <si>
-    <t>Hello, Hey, Hi, Yo, Whats up?, What's up?</t>
+    <t>Hello</t>
   </si>
   <si>
     <t>Hiya!</t>
@@ -61,7 +61,7 @@
     <t>Yo..</t>
   </si>
   <si>
-    <t>What's going on?, How are you?, What's up?</t>
+    <t>What's going on?</t>
   </si>
   <si>
     <t>Just picking the flowers. They grow so nicely around here.</t>
@@ -82,7 +82,7 @@
     <t>Doing well. The food here is to die for.</t>
   </si>
   <si>
-    <t>So how did you get here?, How'd you get here?, How did you get here?</t>
+    <t>So how did you get here?</t>
   </si>
   <si>
     <t>Oh my grandmother drove me over here. She's so nice to me.</t>
@@ -106,7 +106,7 @@
     <t>How do you know Dovakiin?</t>
   </si>
   <si>
-    <t>He's my brother of course! The bestest friend I can get really.</t>
+    <t>He's my cousin of course! The bestest friend I can get really.</t>
   </si>
   <si>
     <t>Dorath..y introduced him to.. me.</t>
@@ -122,6 +122,21 @@
   </si>
   <si>
     <t>We take a cooking class together in school, though he does so much better than I could ever.</t>
+  </si>
+  <si>
+    <t>Hey</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Yo.</t>
+  </si>
+  <si>
+    <t>What's up?</t>
+  </si>
+  <si>
+    <t>How'd you get here?</t>
   </si>
 </sst>
 </file>
@@ -313,15 +328,130 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/gumedat.xlsx
+++ b/gumedat.xlsx
@@ -19,22 +19,22 @@
     <t>Player</t>
   </si>
   <si>
-    <t>Dorathy</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Kayla</t>
-  </si>
-  <si>
-    <t>Dovakiin</t>
-  </si>
-  <si>
-    <t>Harold</t>
-  </si>
-  <si>
-    <t>Lawrence</t>
+    <t>dorathy</t>
+  </si>
+  <si>
+    <t>alice</t>
+  </si>
+  <si>
+    <t>kayla</t>
+  </si>
+  <si>
+    <t>dovahkiin</t>
+  </si>
+  <si>
+    <t>harold</t>
+  </si>
+  <si>
+    <t>lawrence</t>
   </si>
   <si>
     <t>inputs:</t>
